--- a/simple_scheduler/utils/软件启动信息.xlsx
+++ b/simple_scheduler/utils/软件启动信息.xlsx
@@ -220,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\workarea\local_sock_nd\backup_db.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,11 +228,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>run_time（远程配置请注意）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\workarea\github\daily_scripts\backup_db.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +643,7 @@
     <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -684,10 +684,11 @@
         <v>6</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -728,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -769,12 +770,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -810,12 +811,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
@@ -852,12 +853,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
@@ -891,12 +892,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
@@ -930,12 +931,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
@@ -969,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>40</v>
       </c>
@@ -1082,22 +1083,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>47</v>
       </c>
@@ -1136,7 +1137,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -1145,16 +1146,16 @@
         <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
         <v>53</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>54</v>
       </c>
-      <c r="G18" t="s">
-        <v>55</v>
-      </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18">
         <v>400</v>
